--- a/InformacoesPix.xlsx
+++ b/InformacoesPix.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -525,117 +525,25 @@
         <v>928333095</v>
       </c>
       <c r="C6" t="str">
-        <v>32323232323</v>
+        <v>31985952837</v>
       </c>
       <c r="D6" t="str">
-        <v>CPF</v>
+        <v>CELULAR</v>
       </c>
       <c r="E6" t="str">
-        <v>12345678909</v>
+        <v>31985952937</v>
       </c>
       <c r="F6" t="str">
-        <v>dsds</v>
+        <v>Diego</v>
       </c>
       <c r="G6" t="str">
-        <v>fdfd</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Diego</v>
-      </c>
-      <c r="B7">
-        <v>928333095</v>
-      </c>
-      <c r="C7" t="str">
-        <v>434343434343</v>
-      </c>
-      <c r="D7" t="str">
-        <v>CPF</v>
-      </c>
-      <c r="E7" t="str">
-        <v>07423456787</v>
-      </c>
-      <c r="F7" t="str">
-        <v>gdfd</v>
-      </c>
-      <c r="G7" t="str">
-        <v>dfdg</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Diego</v>
-      </c>
-      <c r="B8">
-        <v>928333095</v>
-      </c>
-      <c r="C8" t="str">
-        <v>42484904753</v>
-      </c>
-      <c r="D8" t="str">
-        <v>CPF</v>
-      </c>
-      <c r="E8" t="str">
-        <v>36780938576</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Fkskl</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Hjks</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Diego</v>
-      </c>
-      <c r="B9">
-        <v>928333095</v>
-      </c>
-      <c r="C9" t="str">
-        <v>31434354545</v>
-      </c>
-      <c r="D9" t="str">
-        <v>CELULAR</v>
-      </c>
-      <c r="E9" t="str">
-        <v>78785654432</v>
-      </c>
-      <c r="F9" t="str">
-        <v>8798798798798</v>
-      </c>
-      <c r="G9" t="str">
-        <v>hkj</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Diego</v>
-      </c>
-      <c r="B10">
-        <v>928333095</v>
-      </c>
-      <c r="C10" t="str">
-        <v>34234566543</v>
-      </c>
-      <c r="D10" t="str">
-        <v>CHAVE</v>
-      </c>
-      <c r="E10" t="str">
-        <v>98989898098765656543434567898765</v>
-      </c>
-      <c r="F10" t="str">
-        <v>sdfds</v>
-      </c>
-      <c r="G10" t="str">
-        <v>fdsf</v>
+        <v>Itaú</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>